--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2452,28 +2452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>339.3032833139821</v>
+        <v>380.8759687862848</v>
       </c>
       <c r="AB2" t="n">
-        <v>464.2497212345918</v>
+        <v>521.1313035552381</v>
       </c>
       <c r="AC2" t="n">
-        <v>419.9423794185377</v>
+        <v>471.3952633563038</v>
       </c>
       <c r="AD2" t="n">
-        <v>339303.2833139821</v>
+        <v>380875.9687862848</v>
       </c>
       <c r="AE2" t="n">
-        <v>464249.7212345918</v>
+        <v>521131.3035552381</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.469624954844909e-06</v>
+        <v>4.175023519573677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.205295138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>419942.3794185377</v>
+        <v>471395.2633563037</v>
       </c>
     </row>
     <row r="3">
@@ -2558,28 +2558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.2162717123776</v>
+        <v>206.2891321255275</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.7386329531182</v>
+        <v>282.253891408221</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.8583142994266</v>
+        <v>255.3159761581281</v>
       </c>
       <c r="AD3" t="n">
-        <v>175216.2717123776</v>
+        <v>206289.1321255275</v>
       </c>
       <c r="AE3" t="n">
-        <v>239738.6329531182</v>
+        <v>282253.891408221</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.815683061305876e-06</v>
+        <v>6.450601534835622e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.310329861111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>216858.3142994266</v>
+        <v>255315.9761581281</v>
       </c>
     </row>
     <row r="4">
@@ -2664,28 +2664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.2292473115847</v>
+        <v>174.3873590707552</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.972575000054</v>
+        <v>238.6044781078061</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.2692274913408</v>
+        <v>215.8324016007545</v>
       </c>
       <c r="AD4" t="n">
-        <v>143229.2473115847</v>
+        <v>174387.3590707552</v>
       </c>
       <c r="AE4" t="n">
-        <v>195972.575000054</v>
+        <v>238604.4781078061</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.263373192434429e-06</v>
+        <v>7.207443914192008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.752604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>177269.2274913408</v>
+        <v>215832.4016007545</v>
       </c>
     </row>
     <row r="5">
@@ -2770,28 +2770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.3106907761849</v>
+        <v>151.0544078393257</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.2968360218379</v>
+        <v>206.6793048558218</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.2804362331445</v>
+        <v>186.9541220766673</v>
       </c>
       <c r="AD5" t="n">
-        <v>130310.6907761849</v>
+        <v>151054.4078393257</v>
       </c>
       <c r="AE5" t="n">
-        <v>178296.8360218379</v>
+        <v>206679.3048558218</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.548419693025767e-06</v>
+        <v>7.689329166366158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.455295138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>161280.4362331445</v>
+        <v>186954.1220766673</v>
       </c>
     </row>
     <row r="6">
@@ -2876,28 +2876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.472255844432</v>
+        <v>143.2159729075728</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.5719435408756</v>
+        <v>195.9544123748595</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.5791124380808</v>
+        <v>177.2527982816035</v>
       </c>
       <c r="AD6" t="n">
-        <v>122472.255844432</v>
+        <v>143215.9729075728</v>
       </c>
       <c r="AE6" t="n">
-        <v>167571.9435408756</v>
+        <v>195954.4123748595</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.702473648471463e-06</v>
+        <v>7.949765021619138e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.307725694444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>151579.1124380808</v>
+        <v>177252.7982816035</v>
       </c>
     </row>
     <row r="7">
@@ -2982,28 +2982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.7326603956653</v>
+        <v>142.4763774588061</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.5599964192252</v>
+        <v>194.9424652532091</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.6637441294436</v>
+        <v>176.3374299729664</v>
       </c>
       <c r="AD7" t="n">
-        <v>121732.6603956653</v>
+        <v>142476.3774588061</v>
       </c>
       <c r="AE7" t="n">
-        <v>166559.9964192252</v>
+        <v>194942.4652532091</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.712183715966222e-06</v>
+        <v>7.966180372495688e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.299045138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>150663.7441294436</v>
+        <v>176337.4299729664</v>
       </c>
     </row>
   </sheetData>
@@ -3279,28 +3279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>237.3179761366486</v>
+        <v>277.5949066575205</v>
       </c>
       <c r="AB2" t="n">
-        <v>324.7089246802017</v>
+        <v>379.817597911779</v>
       </c>
       <c r="AC2" t="n">
-        <v>293.7191606406578</v>
+        <v>343.5683394444249</v>
       </c>
       <c r="AD2" t="n">
-        <v>237317.9761366486</v>
+        <v>277594.9066575205</v>
       </c>
       <c r="AE2" t="n">
-        <v>324708.9246802017</v>
+        <v>379817.5979117791</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.025262165811374e-06</v>
+        <v>5.239121814030968e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.929253472222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>293719.1606406578</v>
+        <v>343568.3394444248</v>
       </c>
     </row>
     <row r="3">
@@ -3385,28 +3385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.4110879138043</v>
+        <v>166.5974505908127</v>
       </c>
       <c r="AB3" t="n">
-        <v>186.6436685160519</v>
+        <v>227.9459816590467</v>
       </c>
       <c r="AC3" t="n">
-        <v>168.8306587489665</v>
+        <v>206.1911370937676</v>
       </c>
       <c r="AD3" t="n">
-        <v>136411.0879138043</v>
+        <v>166597.4505908127</v>
       </c>
       <c r="AE3" t="n">
-        <v>186643.668516052</v>
+        <v>227945.9816590467</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.311109660015027e-06</v>
+        <v>7.465940941487523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.861111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>168830.6587489665</v>
+        <v>206191.1370937676</v>
       </c>
     </row>
     <row r="4">
@@ -3491,28 +3491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.4077295098347</v>
+        <v>140.5036138515341</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.7471675294072</v>
+        <v>192.2432430535529</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.023929084548</v>
+        <v>173.8958177516624</v>
       </c>
       <c r="AD4" t="n">
-        <v>120407.7295098347</v>
+        <v>140503.6138515341</v>
       </c>
       <c r="AE4" t="n">
-        <v>164747.1675294072</v>
+        <v>192243.2430535529</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.713099990584816e-06</v>
+        <v>8.162104181063442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.446614583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>149023.929084548</v>
+        <v>173895.8177516624</v>
       </c>
     </row>
     <row r="5">
@@ -3597,28 +3597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.232961513187</v>
+        <v>133.3288458548865</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.9303334279743</v>
+        <v>182.42640895212</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.1439998517395</v>
+        <v>165.0158885188538</v>
       </c>
       <c r="AD5" t="n">
-        <v>113232.961513187</v>
+        <v>133328.8458548865</v>
       </c>
       <c r="AE5" t="n">
-        <v>154930.3334279743</v>
+        <v>182426.40895212</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.873722268272842e-06</v>
+        <v>8.440268397165016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>140143.9998517395</v>
+        <v>165015.8885188538</v>
       </c>
     </row>
     <row r="6">
@@ -3703,28 +3703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.5788385643263</v>
+        <v>133.6747229060257</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.4035776683614</v>
+        <v>182.899653192507</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.5720783260267</v>
+        <v>165.443966993141</v>
       </c>
       <c r="AD6" t="n">
-        <v>113578.8385643263</v>
+        <v>133674.7229060257</v>
       </c>
       <c r="AE6" t="n">
-        <v>155403.5776683613</v>
+        <v>182899.653192507</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.874398369261305e-06</v>
+        <v>8.441439262776988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>140572.0783260266</v>
+        <v>165443.966993141</v>
       </c>
     </row>
   </sheetData>
@@ -4000,28 +4000,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.2140497010015</v>
+        <v>128.4748056845756</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4855280495833</v>
+        <v>175.7848970459652</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2686636182276</v>
+        <v>159.0082331876</v>
       </c>
       <c r="AD2" t="n">
-        <v>101214.0497010015</v>
+        <v>128474.8056845756</v>
       </c>
       <c r="AE2" t="n">
-        <v>138485.5280495833</v>
+        <v>175784.8970459652</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.919208298520972e-06</v>
+        <v>9.308200663855825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.754774305555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>125268.6636182276</v>
+        <v>159008.2331876</v>
       </c>
     </row>
     <row r="3">
@@ -4106,28 +4106,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>96.04808656206404</v>
+        <v>114.3641586420661</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.4172293766838</v>
+        <v>156.4780872446011</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.8749534502479</v>
+        <v>141.5440382163941</v>
       </c>
       <c r="AD3" t="n">
-        <v>96048.08656206404</v>
+        <v>114364.1586420661</v>
       </c>
       <c r="AE3" t="n">
-        <v>131417.2293766838</v>
+        <v>156478.0872446011</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.122042249352785e-06</v>
+        <v>9.692006146610608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.565972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>118874.9534502479</v>
+        <v>141544.0382163941</v>
       </c>
     </row>
   </sheetData>
@@ -4403,28 +4403,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.1030327172382</v>
+        <v>172.4223328535629</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.1681267407598</v>
+        <v>235.9158425466067</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.3506774518815</v>
+        <v>213.4003656439913</v>
       </c>
       <c r="AD2" t="n">
-        <v>144103.0327172382</v>
+        <v>172422.3328535629</v>
       </c>
       <c r="AE2" t="n">
-        <v>197168.1267407598</v>
+        <v>235915.8425466067</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.122163272148552e-06</v>
+        <v>7.509686251952607e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.427517361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>178350.6774518815</v>
+        <v>213400.3656439913</v>
       </c>
     </row>
     <row r="3">
@@ -4509,28 +4509,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.1378617268741</v>
+        <v>121.0458719387982</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.7495284190919</v>
+        <v>165.6203021535717</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.4120295665063</v>
+        <v>149.8137329656347</v>
       </c>
       <c r="AD3" t="n">
-        <v>102137.8617268741</v>
+        <v>121045.8719387982</v>
       </c>
       <c r="AE3" t="n">
-        <v>139749.5284190919</v>
+        <v>165620.3021535717</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.061146286642221e-06</v>
+        <v>9.220309380930405e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.420572916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>126412.0295665063</v>
+        <v>149813.7329656347</v>
       </c>
     </row>
     <row r="4">
@@ -4615,28 +4615,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.1029566245631</v>
+        <v>121.0109668364872</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.7017697182056</v>
+        <v>165.5725434526854</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.3688288890028</v>
+        <v>149.7705322881312</v>
       </c>
       <c r="AD4" t="n">
-        <v>102102.9566245631</v>
+        <v>121010.9668364872</v>
       </c>
       <c r="AE4" t="n">
-        <v>139701.7697182056</v>
+        <v>165572.5434526854</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.075374864219923e-06</v>
+        <v>9.24623075918877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.407552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>126368.8288890028</v>
+        <v>149770.5322881312</v>
       </c>
     </row>
   </sheetData>
@@ -4912,28 +4912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.67644228175719</v>
+        <v>117.9990513283872</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.4357528090369</v>
+        <v>161.4515077781707</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.4643406111603</v>
+        <v>146.0428024744809</v>
       </c>
       <c r="AD2" t="n">
-        <v>91676.44228175719</v>
+        <v>117999.0513283872</v>
       </c>
       <c r="AE2" t="n">
-        <v>125435.7528090369</v>
+        <v>161451.5077781707</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.073640531815459e-06</v>
+        <v>9.942700713006162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.787326388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>113464.3406111603</v>
+        <v>146042.8024744809</v>
       </c>
     </row>
   </sheetData>
@@ -5209,28 +5209,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>265.69141207322</v>
+        <v>296.2186210518193</v>
       </c>
       <c r="AB2" t="n">
-        <v>363.5307114764209</v>
+        <v>405.2993855663507</v>
       </c>
       <c r="AC2" t="n">
-        <v>328.8358505916685</v>
+        <v>366.6181810491576</v>
       </c>
       <c r="AD2" t="n">
-        <v>265691.41207322</v>
+        <v>296218.6210518193</v>
       </c>
       <c r="AE2" t="n">
-        <v>363530.7114764209</v>
+        <v>405299.3855663507</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.87374846987838e-06</v>
+        <v>4.944230236902165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.228732638888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>328835.8505916685</v>
+        <v>366618.1810491576</v>
       </c>
     </row>
     <row r="3">
@@ -5315,28 +5315,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.568738518716</v>
+        <v>172.0105171341922</v>
       </c>
       <c r="AB3" t="n">
-        <v>193.7005936131743</v>
+        <v>235.3523781113366</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.2140808192783</v>
+        <v>212.8906774635959</v>
       </c>
       <c r="AD3" t="n">
-        <v>141568.738518716</v>
+        <v>172010.5171341922</v>
       </c>
       <c r="AE3" t="n">
-        <v>193700.5936131743</v>
+        <v>235352.3781113366</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.211027884749341e-06</v>
+        <v>7.244994339082498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.932725694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>175214.0808192783</v>
+        <v>212890.6774635959</v>
       </c>
     </row>
     <row r="4">
@@ -5421,28 +5421,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.2505937080256</v>
+        <v>146.6873475426291</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.7416320943439</v>
+        <v>200.7041002967815</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.2554131717112</v>
+        <v>181.5491826544876</v>
       </c>
       <c r="AD4" t="n">
-        <v>126250.5937080256</v>
+        <v>146687.3475426291</v>
       </c>
       <c r="AE4" t="n">
-        <v>172741.6320943439</v>
+        <v>200704.1002967815</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.590646391612002e-06</v>
+        <v>7.898120846078935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.524739583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>156255.4131717112</v>
+        <v>181549.1826544876</v>
       </c>
     </row>
     <row r="5">
@@ -5527,28 +5527,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>116.7150779022066</v>
+        <v>136.9812395362179</v>
       </c>
       <c r="AB5" t="n">
-        <v>159.6947186915616</v>
+        <v>187.4237751191523</v>
       </c>
       <c r="AC5" t="n">
-        <v>144.4536788726282</v>
+        <v>169.5363130727536</v>
       </c>
       <c r="AD5" t="n">
-        <v>116715.0779022066</v>
+        <v>136981.2395362179</v>
       </c>
       <c r="AE5" t="n">
-        <v>159694.7186915616</v>
+        <v>187423.7751191523</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.803236584184358e-06</v>
+        <v>8.263878277253689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.325086805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>144453.6788726282</v>
+        <v>169536.3130727536</v>
       </c>
     </row>
     <row r="6">
@@ -5633,28 +5633,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>116.0912121678805</v>
+        <v>136.3573738018918</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.8411180708433</v>
+        <v>186.5701744984339</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.681544697115</v>
+        <v>168.7641788972404</v>
       </c>
       <c r="AD6" t="n">
-        <v>116091.2121678805</v>
+        <v>136357.3738018918</v>
       </c>
       <c r="AE6" t="n">
-        <v>158841.1180708433</v>
+        <v>186570.1744984339</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.818264346558902e-06</v>
+        <v>8.289733260006702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.312065972222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>143681.544697115</v>
+        <v>168764.1788972404</v>
       </c>
     </row>
   </sheetData>
@@ -5930,28 +5930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.84320736976036</v>
+        <v>116.0782478441537</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.2416369777991</v>
+        <v>158.8233797111748</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.3343649575037</v>
+        <v>143.6654992615973</v>
       </c>
       <c r="AD2" t="n">
-        <v>98843.20736976036</v>
+        <v>116078.2478441537</v>
       </c>
       <c r="AE2" t="n">
-        <v>135241.6369777991</v>
+        <v>158823.3797111748</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.968781631238692e-06</v>
+        <v>9.960719656152581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.002170138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>122334.3649575037</v>
+        <v>143665.4992615973</v>
       </c>
     </row>
   </sheetData>
@@ -6227,28 +6227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.3331338772431</v>
+        <v>220.690637764167</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.7904347928531</v>
+        <v>301.9586667725857</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8055231214825</v>
+        <v>273.1401554175499</v>
       </c>
       <c r="AD2" t="n">
-        <v>191333.1338772431</v>
+        <v>220690.637764167</v>
       </c>
       <c r="AE2" t="n">
-        <v>261790.4347928531</v>
+        <v>301958.6667725857</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.524066633147301e-06</v>
+        <v>6.24138386977032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.128472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>236805.5231214825</v>
+        <v>273140.1554175499</v>
       </c>
     </row>
     <row r="3">
@@ -6333,28 +6333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.1816065705072</v>
+        <v>151.5390209488801</v>
       </c>
       <c r="AB3" t="n">
-        <v>167.1742643817509</v>
+        <v>207.3423738919352</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.2193872197566</v>
+        <v>187.5539087345975</v>
       </c>
       <c r="AD3" t="n">
-        <v>122181.6065705072</v>
+        <v>151539.0209488801</v>
       </c>
       <c r="AE3" t="n">
-        <v>167174.2643817509</v>
+        <v>207342.3738919352</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.580102414102294e-06</v>
+        <v>8.111701708586649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.715711805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>151219.3872197566</v>
+        <v>187553.9087345975</v>
       </c>
     </row>
     <row r="4">
@@ -6439,28 +6439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.4999039366552</v>
+        <v>127.0431560792643</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.0861111271176</v>
+        <v>173.8260508960563</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.0484191178389</v>
+        <v>157.2363365649798</v>
       </c>
       <c r="AD4" t="n">
-        <v>107499.9039366552</v>
+        <v>127043.1560792643</v>
       </c>
       <c r="AE4" t="n">
-        <v>147086.1111271176</v>
+        <v>173826.0508960563</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.989898432380909e-06</v>
+        <v>8.837480907629774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.327256944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>133048.4191178389</v>
+        <v>157236.3365649798</v>
       </c>
     </row>
     <row r="5">
@@ -6545,28 +6545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.9012357045975</v>
+        <v>127.4444878472065</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.635230957524</v>
+        <v>174.3751707264627</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.545131722326</v>
+        <v>157.7330491694669</v>
       </c>
       <c r="AD5" t="n">
-        <v>107901.2357045975</v>
+        <v>127444.4878472065</v>
       </c>
       <c r="AE5" t="n">
-        <v>147635.2309575239</v>
+        <v>174375.1707264627</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.987112058288679e-06</v>
+        <v>8.832546032065614e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.329427083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>133545.131722326</v>
+        <v>157733.0491694669</v>
       </c>
     </row>
   </sheetData>
@@ -6842,28 +6842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.5126722577381</v>
+        <v>260.4360981784718</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.715166515406</v>
+        <v>356.3401591575405</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.9198944831605</v>
+        <v>322.3315544940984</v>
       </c>
       <c r="AD2" t="n">
-        <v>220512.6722577381</v>
+        <v>260436.0981784718</v>
       </c>
       <c r="AE2" t="n">
-        <v>301715.166515406</v>
+        <v>356340.1591575405</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.186016760765547e-06</v>
+        <v>5.556135030326492e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>272919.8944831605</v>
+        <v>322331.5544940985</v>
       </c>
     </row>
     <row r="3">
@@ -6948,28 +6948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.921996489156</v>
+        <v>163.8432307160609</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.2379838178863</v>
+        <v>224.177536518808</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.7500078184842</v>
+        <v>202.782347068666</v>
       </c>
       <c r="AD3" t="n">
-        <v>133921.996489156</v>
+        <v>163843.2307160609</v>
       </c>
       <c r="AE3" t="n">
-        <v>183237.9838178863</v>
+        <v>224177.536518808</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.345525614940595e-06</v>
+        <v>7.578217224617185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>165750.0078184842</v>
+        <v>202782.347068666</v>
       </c>
     </row>
     <row r="4">
@@ -7054,28 +7054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.0797904051282</v>
+        <v>134.9989224467586</v>
       </c>
       <c r="AB4" t="n">
-        <v>157.4572461942672</v>
+        <v>184.7114814236976</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.4297476101626</v>
+        <v>167.0828768808641</v>
       </c>
       <c r="AD4" t="n">
-        <v>115079.7904051282</v>
+        <v>134998.9224467586</v>
       </c>
       <c r="AE4" t="n">
-        <v>157457.2461942672</v>
+        <v>184711.4814236976</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.826411729033375e-06</v>
+        <v>8.416840617002124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>142429.7476101626</v>
+        <v>167082.8768808641</v>
       </c>
     </row>
     <row r="5">
@@ -7160,28 +7160,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>111.3530471333919</v>
+        <v>131.2721791750224</v>
       </c>
       <c r="AB5" t="n">
-        <v>152.3581516375708</v>
+        <v>179.6123868670011</v>
       </c>
       <c r="AC5" t="n">
-        <v>137.8173034813315</v>
+        <v>162.470432752033</v>
       </c>
       <c r="AD5" t="n">
-        <v>111353.0471333919</v>
+        <v>131272.1791750223</v>
       </c>
       <c r="AE5" t="n">
-        <v>152358.1516375708</v>
+        <v>179612.3868670011</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.919624852527434e-06</v>
+        <v>8.579396165079983e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.301215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>137817.3034813315</v>
+        <v>162470.432752033</v>
       </c>
     </row>
   </sheetData>
@@ -7457,28 +7457,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.7644289529362</v>
+        <v>349.1141302483336</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.0968693017542</v>
+        <v>477.6733548341911</v>
       </c>
       <c r="AC2" t="n">
-        <v>380.907975108762</v>
+        <v>432.0848802675793</v>
       </c>
       <c r="AD2" t="n">
-        <v>307764.4289529362</v>
+        <v>349114.1302483336</v>
       </c>
       <c r="AE2" t="n">
-        <v>421096.8693017542</v>
+        <v>477673.354834191</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.587808800977718e-06</v>
+        <v>4.399103451065858e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.892795138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>380907.975108762</v>
+        <v>432084.8802675793</v>
       </c>
     </row>
     <row r="3">
@@ -7563,28 +7563,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.6469950260025</v>
+        <v>188.321935182252</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.3820146579054</v>
+        <v>257.6703798936576</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.4901171187006</v>
+        <v>233.0786804793316</v>
       </c>
       <c r="AD3" t="n">
-        <v>167646.9950260025</v>
+        <v>188321.935182252</v>
       </c>
       <c r="AE3" t="n">
-        <v>229382.0146579054</v>
+        <v>257670.3798936576</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.932580956382693e-06</v>
+        <v>6.685126988625594e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.193142361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>207490.1171187006</v>
+        <v>233078.6804793316</v>
       </c>
     </row>
     <row r="4">
@@ -7669,28 +7669,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.0499465950637</v>
+        <v>168.9768817120398</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.8860272650922</v>
+        <v>231.2016242922004</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.8590099261693</v>
+        <v>209.1360657633373</v>
       </c>
       <c r="AD4" t="n">
-        <v>138049.9465950637</v>
+        <v>168976.8817120398</v>
       </c>
       <c r="AE4" t="n">
-        <v>188886.0272650922</v>
+        <v>231201.6242922004</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.355710329375958e-06</v>
+        <v>7.404418879231553e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.689670138888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>170859.0099261693</v>
+        <v>209136.0657633372</v>
       </c>
     </row>
     <row r="5">
@@ -7775,28 +7775,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>127.9411199262658</v>
+        <v>148.5307192279437</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.0546846468922</v>
+        <v>203.2262827604469</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.3477112350347</v>
+        <v>183.8306515637269</v>
       </c>
       <c r="AD5" t="n">
-        <v>127941.1199262658</v>
+        <v>148530.7192279437</v>
       </c>
       <c r="AE5" t="n">
-        <v>175054.6846468922</v>
+        <v>203226.2827604469</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.577250930805261e-06</v>
+        <v>7.781023218752556e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>158347.7112350347</v>
+        <v>183830.6515637269</v>
       </c>
     </row>
     <row r="6">
@@ -7881,28 +7881,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>119.6213914563157</v>
+        <v>140.2109907579935</v>
       </c>
       <c r="AB6" t="n">
-        <v>163.6712651137965</v>
+        <v>191.8428632273512</v>
       </c>
       <c r="AC6" t="n">
-        <v>148.0507092854443</v>
+        <v>173.5336496141366</v>
       </c>
       <c r="AD6" t="n">
-        <v>119621.3914563157</v>
+        <v>140210.9907579935</v>
       </c>
       <c r="AE6" t="n">
-        <v>163671.2651137965</v>
+        <v>191842.8632273512</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.753523465417448e-06</v>
+        <v>8.080674844888003e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>148050.7092854443</v>
+        <v>173533.6496141365</v>
       </c>
     </row>
     <row r="7">
@@ -7987,28 +7987,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>119.820714811537</v>
+        <v>140.4103141132149</v>
       </c>
       <c r="AB7" t="n">
-        <v>163.943988121936</v>
+        <v>192.1155862354906</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.2974039924562</v>
+        <v>173.7803443211485</v>
       </c>
       <c r="AD7" t="n">
-        <v>119820.714811537</v>
+        <v>140410.3141132149</v>
       </c>
       <c r="AE7" t="n">
-        <v>163943.988121936</v>
+        <v>192115.5862354906</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.753523465417448e-06</v>
+        <v>8.080674844888003e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH7" t="n">
-        <v>148297.4039924562</v>
+        <v>173780.3443211485</v>
       </c>
     </row>
   </sheetData>
@@ -8284,28 +8284,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.6244921590462</v>
+        <v>185.4489312425078</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.3005399568366</v>
+        <v>253.7394091553132</v>
       </c>
       <c r="AC2" t="n">
-        <v>193.8479971961143</v>
+        <v>229.5228760711014</v>
       </c>
       <c r="AD2" t="n">
-        <v>156624.4921590462</v>
+        <v>185448.9312425078</v>
       </c>
       <c r="AE2" t="n">
-        <v>214300.5399568366</v>
+        <v>253739.4091553132</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.89392332357346e-06</v>
+        <v>7.021665210194211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.674913194444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>193847.9971961143</v>
+        <v>229522.8760711014</v>
       </c>
     </row>
     <row r="3">
@@ -8390,28 +8390,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.9042396161968</v>
+        <v>126.035280992484</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.2710969250117</v>
+        <v>172.4470317380135</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.3111887273022</v>
+        <v>155.9889290599147</v>
       </c>
       <c r="AD3" t="n">
-        <v>106904.2396161968</v>
+        <v>126035.280992484</v>
       </c>
       <c r="AE3" t="n">
-        <v>146271.0969250117</v>
+        <v>172447.0317380135</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.951987153579353e-06</v>
+        <v>8.929604675858696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.461805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>132311.1887273022</v>
+        <v>155988.9290599147</v>
       </c>
     </row>
     <row r="4">
@@ -8496,28 +8496,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.1630994190849</v>
+        <v>123.294140795372</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.5205479767544</v>
+        <v>168.6964827897562</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.9185869067368</v>
+        <v>152.5963272393493</v>
       </c>
       <c r="AD4" t="n">
-        <v>104163.0994190849</v>
+        <v>123294.140795372</v>
       </c>
       <c r="AE4" t="n">
-        <v>142520.5479767544</v>
+        <v>168696.4827897562</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.037410128307505e-06</v>
+        <v>9.083642513781377e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.385850694444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>128918.5869067368</v>
+        <v>152596.3272393493</v>
       </c>
     </row>
   </sheetData>
@@ -8793,28 +8793,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.7188195689622</v>
+        <v>140.388640212819</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.2268617375445</v>
+        <v>192.0859310487839</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.5076665121154</v>
+        <v>173.7535193838397</v>
       </c>
       <c r="AD2" t="n">
-        <v>112718.8195689622</v>
+        <v>140388.640212819</v>
       </c>
       <c r="AE2" t="n">
-        <v>154226.8617375445</v>
+        <v>192085.9310487839</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.604389646782627e-06</v>
+        <v>8.590319321183371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.997829861111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>139507.6665121154</v>
+        <v>173753.5193838397</v>
       </c>
     </row>
     <row r="3">
@@ -8899,28 +8899,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.87662465561405</v>
+        <v>116.2948143085457</v>
       </c>
       <c r="AB3" t="n">
-        <v>133.919115865685</v>
+        <v>159.1196955019938</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.1380634041594</v>
+        <v>143.9335350892226</v>
       </c>
       <c r="AD3" t="n">
-        <v>97876.62465561405</v>
+        <v>116294.8143085457</v>
       </c>
       <c r="AE3" t="n">
-        <v>133919.115865685</v>
+        <v>159119.6955019938</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.122481585432212e-06</v>
+        <v>9.55691327437775e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.4921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>121138.0634041594</v>
+        <v>143933.5350892226</v>
       </c>
     </row>
   </sheetData>
@@ -15473,28 +15473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.09053350676136</v>
+        <v>120.9056605916675</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.7388189252743</v>
+        <v>165.4284588027395</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.4521667331474</v>
+        <v>149.6401988749519</v>
       </c>
       <c r="AD2" t="n">
-        <v>94090.53350676136</v>
+        <v>120905.6605916675</v>
       </c>
       <c r="AE2" t="n">
-        <v>128738.8189252743</v>
+        <v>165428.4588027395</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.098418143196454e-06</v>
+        <v>9.804447157105383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>116452.1667331474</v>
+        <v>149640.198874952</v>
       </c>
     </row>
     <row r="3">
@@ -15579,28 +15579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.23064158197178</v>
+        <v>121.0457686668779</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.9305209749091</v>
+        <v>165.6201608523743</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.6255730082206</v>
+        <v>149.8136051500252</v>
       </c>
       <c r="AD3" t="n">
-        <v>94230.64158197178</v>
+        <v>121045.7686668779</v>
       </c>
       <c r="AE3" t="n">
-        <v>128930.5209749091</v>
+        <v>165620.1608523743</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.106317394478118e-06</v>
+        <v>9.819637710252755e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.663628472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>116625.5730082206</v>
+        <v>149813.6051500252</v>
       </c>
     </row>
   </sheetData>
@@ -15876,28 +15876,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.06642678675803</v>
+        <v>122.1020348364734</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.8105673981094</v>
+        <v>167.0653908247888</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.1353132464713</v>
+        <v>151.1209044022659</v>
       </c>
       <c r="AD2" t="n">
-        <v>97066.42678675803</v>
+        <v>122102.0348364734</v>
       </c>
       <c r="AE2" t="n">
-        <v>132810.5673981094</v>
+        <v>167065.3908247887</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.764454880802928e-06</v>
+        <v>9.827161403807526e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>120135.3132464713</v>
+        <v>151120.9044022659</v>
       </c>
     </row>
   </sheetData>
@@ -16173,28 +16173,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>206.4160023376288</v>
+        <v>236.06142890217</v>
       </c>
       <c r="AB2" t="n">
-        <v>282.4274808295368</v>
+        <v>322.9896613190373</v>
       </c>
       <c r="AC2" t="n">
-        <v>255.4729984487077</v>
+        <v>292.1639813616811</v>
       </c>
       <c r="AD2" t="n">
-        <v>206416.0023376288</v>
+        <v>236061.42890217</v>
       </c>
       <c r="AE2" t="n">
-        <v>282427.4808295368</v>
+        <v>322989.6613190373</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.338357767961967e-06</v>
+        <v>5.865362907520647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.401909722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>255472.9984487077</v>
+        <v>292163.9813616811</v>
       </c>
     </row>
     <row r="3">
@@ -16279,28 +16279,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.9108111500158</v>
+        <v>161.5561482060059</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.4861913096409</v>
+        <v>221.0482493295931</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.2608425250598</v>
+        <v>199.9517146568066</v>
       </c>
       <c r="AD3" t="n">
-        <v>131910.8111500158</v>
+        <v>161556.1482060059</v>
       </c>
       <c r="AE3" t="n">
-        <v>180486.1913096409</v>
+        <v>221048.2493295931</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.364976639083015e-06</v>
+        <v>7.669091766249343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>163260.8425250598</v>
+        <v>199951.7146568066</v>
       </c>
     </row>
     <row r="4">
@@ -16385,28 +16385,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.9019879590566</v>
+        <v>128.6371885534106</v>
       </c>
       <c r="AB4" t="n">
-        <v>149.0045043421478</v>
+        <v>176.0070764509317</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.783723576909</v>
+        <v>159.2092081019872</v>
       </c>
       <c r="AD4" t="n">
-        <v>108901.9879590566</v>
+        <v>128637.1885534106</v>
       </c>
       <c r="AE4" t="n">
-        <v>149004.5043421478</v>
+        <v>176007.0764509317</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.977501279694325e-06</v>
+        <v>8.745273397068765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.292534722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>134783.723576909</v>
+        <v>159209.2081019872</v>
       </c>
     </row>
     <row r="5">
@@ -16491,28 +16491,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>109.8597898494711</v>
+        <v>129.5949904438251</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.3150111438495</v>
+        <v>177.3175832526334</v>
       </c>
       <c r="AC5" t="n">
-        <v>135.9691574487646</v>
+        <v>160.3946419738427</v>
       </c>
       <c r="AD5" t="n">
-        <v>109859.7898494711</v>
+        <v>129594.9904438251</v>
       </c>
       <c r="AE5" t="n">
-        <v>150315.0111438495</v>
+        <v>177317.5832526334</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.940966449844358e-06</v>
+        <v>8.681083142240148e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.325086805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>135969.1574487646</v>
+        <v>160394.6419738428</v>
       </c>
     </row>
   </sheetData>
@@ -16788,28 +16788,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.9727304052745</v>
+        <v>326.0043574949367</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.9122618500681</v>
+        <v>446.0535442217744</v>
       </c>
       <c r="AC2" t="n">
-        <v>352.6995828243933</v>
+        <v>403.4828200013288</v>
       </c>
       <c r="AD2" t="n">
-        <v>284972.7304052745</v>
+        <v>326004.3574949367</v>
       </c>
       <c r="AE2" t="n">
-        <v>389912.2618500681</v>
+        <v>446053.5442217744</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.732982182538324e-06</v>
+        <v>4.673094962059194e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.534722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>352699.5828243933</v>
+        <v>403482.8200013288</v>
       </c>
     </row>
     <row r="3">
@@ -16894,28 +16894,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.6476940286746</v>
+        <v>179.1635970820565</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.0687740122278</v>
+        <v>245.139537667615</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.3520348785008</v>
+        <v>221.7437642481909</v>
       </c>
       <c r="AD3" t="n">
-        <v>158647.6940286746</v>
+        <v>179163.5970820565</v>
       </c>
       <c r="AE3" t="n">
-        <v>217068.7740122278</v>
+        <v>245139.537667615</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.086947105470852e-06</v>
+        <v>6.988224091179352e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.0390625</v>
       </c>
       <c r="AH3" t="n">
-        <v>196352.0348785008</v>
+        <v>221743.7642481909</v>
       </c>
     </row>
     <row r="4">
@@ -17000,28 +17000,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.1612152249578</v>
+        <v>152.7623696243602</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.8288052120245</v>
+        <v>209.0162135200609</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.5707578374617</v>
+        <v>189.0679994578641</v>
       </c>
       <c r="AD4" t="n">
-        <v>132161.2152249578</v>
+        <v>152762.3696243603</v>
       </c>
       <c r="AE4" t="n">
-        <v>180828.8052120245</v>
+        <v>209016.2135200609</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.471842096178332e-06</v>
+        <v>7.646351631669355e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.605034722222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>163570.7578374617</v>
+        <v>189067.9994578641</v>
       </c>
     </row>
     <row r="5">
@@ -17106,28 +17106,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>121.7661587475609</v>
+        <v>142.1967209463712</v>
       </c>
       <c r="AB5" t="n">
-        <v>166.6058303421317</v>
+        <v>194.5598268753212</v>
       </c>
       <c r="AC5" t="n">
-        <v>150.7052037270763</v>
+        <v>175.9913100648276</v>
       </c>
       <c r="AD5" t="n">
-        <v>121766.1587475609</v>
+        <v>142196.7209463712</v>
       </c>
       <c r="AE5" t="n">
-        <v>166605.8303421317</v>
+        <v>194559.8268753212</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.704620057767447e-06</v>
+        <v>8.044376004653077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.377170138888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>150705.2037270763</v>
+        <v>175991.3100648276</v>
       </c>
     </row>
     <row r="6">
@@ -17212,28 +17212,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.5835578728046</v>
+        <v>138.0141200716149</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.8830113019653</v>
+        <v>188.8370078351549</v>
       </c>
       <c r="AC6" t="n">
-        <v>145.5285625040746</v>
+        <v>170.814668841826</v>
       </c>
       <c r="AD6" t="n">
-        <v>117583.5578728046</v>
+        <v>138014.1200716149</v>
       </c>
       <c r="AE6" t="n">
-        <v>160883.0113019653</v>
+        <v>188837.0078351549</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.793062397841258e-06</v>
+        <v>8.19560254995305e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>145528.5625040746</v>
+        <v>170814.668841826</v>
       </c>
     </row>
     <row r="7">
@@ -17318,28 +17318,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.8293963701185</v>
+        <v>138.2599585689288</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.2193783796191</v>
+        <v>189.1733749128086</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.8328271799314</v>
+        <v>171.1189335176827</v>
       </c>
       <c r="AD7" t="n">
-        <v>117829.3963701185</v>
+        <v>138259.9585689288</v>
       </c>
       <c r="AE7" t="n">
-        <v>161219.3783796191</v>
+        <v>189173.3749128086</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.796288835140087e-06</v>
+        <v>8.201119398172145e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.294704861111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>145832.8271799314</v>
+        <v>171118.9335176827</v>
       </c>
     </row>
   </sheetData>
@@ -17615,28 +17615,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>104.8644500671748</v>
+        <v>129.1929841213956</v>
       </c>
       <c r="AB2" t="n">
-        <v>143.4801668748773</v>
+        <v>176.7675404670184</v>
       </c>
       <c r="AC2" t="n">
-        <v>129.7866211240568</v>
+        <v>159.8970944996968</v>
       </c>
       <c r="AD2" t="n">
-        <v>104864.4500671748</v>
+        <v>129192.9841213956</v>
       </c>
       <c r="AE2" t="n">
-        <v>143480.1668748774</v>
+        <v>176767.5404670184</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.281008602807946e-06</v>
+        <v>9.176173227545135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.180555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>129786.6211240568</v>
+        <v>159897.0944996968</v>
       </c>
     </row>
   </sheetData>
@@ -17912,28 +17912,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.8054134519439</v>
+        <v>151.5619909106535</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.7102256462065</v>
+        <v>207.3738024069968</v>
       </c>
       <c r="AC2" t="n">
-        <v>164.3680567424869</v>
+        <v>187.5823377562918</v>
       </c>
       <c r="AD2" t="n">
-        <v>132805.4134519439</v>
+        <v>151561.9909106535</v>
       </c>
       <c r="AE2" t="n">
-        <v>181710.2256462065</v>
+        <v>207373.8024069968</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.35375408836971e-06</v>
+        <v>8.021498182254525e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>164368.0567424869</v>
+        <v>187582.3377562918</v>
       </c>
     </row>
     <row r="3">
@@ -18018,28 +18018,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>99.76392431565377</v>
+        <v>118.4351609197917</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.5014025223347</v>
+        <v>162.0482121609274</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.4739002465613</v>
+        <v>146.5825582284274</v>
       </c>
       <c r="AD3" t="n">
-        <v>99763.92431565377</v>
+        <v>118435.1609197917</v>
       </c>
       <c r="AE3" t="n">
-        <v>136501.4025223347</v>
+        <v>162048.2121609274</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.103731027688473e-06</v>
+        <v>9.403280095833154e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>123473.9002465613</v>
+        <v>146582.5582284274</v>
       </c>
     </row>
   </sheetData>
@@ -18315,28 +18315,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.1338392456484</v>
+        <v>197.2751319683551</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.0481363972757</v>
+        <v>269.9205387235632</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.0926651341733</v>
+        <v>244.1597013437208</v>
       </c>
       <c r="AD2" t="n">
-        <v>168133.8392456484</v>
+        <v>197275.1319683551</v>
       </c>
       <c r="AE2" t="n">
-        <v>230048.1363972757</v>
+        <v>269920.5387235632</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.711863295713083e-06</v>
+        <v>6.630972892390374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.883246527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>208092.6651341733</v>
+        <v>244159.7013437208</v>
       </c>
     </row>
     <row r="3">
@@ -18421,28 +18421,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>114.658031539819</v>
+        <v>134.1709008761951</v>
       </c>
       <c r="AB3" t="n">
-        <v>156.8801771080636</v>
+        <v>183.5785457811196</v>
       </c>
       <c r="AC3" t="n">
-        <v>141.9077531876245</v>
+        <v>166.0580670259283</v>
       </c>
       <c r="AD3" t="n">
-        <v>114658.031539819</v>
+        <v>134170.9008761951</v>
       </c>
       <c r="AE3" t="n">
-        <v>156880.1771080636</v>
+        <v>183578.5457811196</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.755821703179353e-06</v>
+        <v>8.495928401039298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.592013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>141907.7531876245</v>
+        <v>166058.0670259283</v>
       </c>
     </row>
     <row r="4">
@@ -18527,28 +18527,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.7575251043886</v>
+        <v>125.0998022401725</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.7021115404826</v>
+        <v>171.1670684386917</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.8919451057872</v>
+        <v>154.83112366144</v>
       </c>
       <c r="AD4" t="n">
-        <v>105757.5251043886</v>
+        <v>125099.8022401725</v>
       </c>
       <c r="AE4" t="n">
-        <v>144702.1115404826</v>
+        <v>171167.0684386917</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.014924633225199e-06</v>
+        <v>8.958796876679875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.353298611111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>130891.9451057872</v>
+        <v>154831.12366144</v>
       </c>
     </row>
   </sheetData>
